--- a/test-result.xlsx
+++ b/test-result.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="19395" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="10350" windowHeight="3570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RPN" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="Googlenet" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="136">
   <si>
     <t>LOGISTIC_BBOX_TARGET</t>
   </si>
@@ -82,75 +83,287 @@
     <t>vgg_cnn_m_1024</t>
   </si>
   <si>
+    <t>aero</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>mbike</t>
+  </si>
+  <si>
+    <t>persn</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>sofa</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>Train model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Proposal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net data/fast_rcnn_models/vgg_cnn_m_1024_fast_rcnn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPN Step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_with_rpn_iter_80000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_1_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_with_rpn_iter_8000_with_step_1_rpn_top_2300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPN Step 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_with_rpn_iter_80000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_with_rpn_iter_8000_with_step_3_rpn_top_2300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_80000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_80000_top_2300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net data/fast_rcnn_models/vgg_cnn_m_1024_fast_rcnn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_1_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_40000_with_step_1_rpn_top_2300</t>
+  </si>
+  <si>
     <t>mAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aero</t>
-  </si>
-  <si>
-    <t>bike</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>bottle</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>cow</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>mbike</t>
-  </si>
-  <si>
-    <t>persn</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>sofa</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>Train model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Proposal</t>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step2_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_1_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step_2_iter_40000_with_step_1_rpn_top_2300</t>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step2_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step_2_iter_40000_with_step_3_rpn_top_2300</t>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step_4_iter_40000_with_step_3_rpn_top_2300</t>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step_4_iter_40000_with_step_3_rpn_top_300</t>
+  </si>
+  <si>
+    <t>googlenet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/Googlenet/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_ss/googlenet_fast_rcnn_with_ss_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_lr</t>
+  </si>
+  <si>
+    <t>lr_policy</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>stepsize</t>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_iters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>train time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss_cls</t>
+  </si>
+  <si>
+    <t>loss_bbox</t>
+  </si>
+  <si>
+    <t>Googlenet_0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Googlenet_0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Googlenet_0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleNet_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleNet_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleNet_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Googlenet_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Googlenet_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Googlenet_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Googlenet_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleNet_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleNet_1_4_50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Googlenet_1_4_50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools\test_net.py --gpu 0 --def models/Googlenet/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_ss/googlenet_1_4_fast_rcnn_with_ss_iter_100000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>googlenet_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_SIZE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,7 +371,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRCNN</t>
+    <t>vgg16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,15 +379,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net data/fast_rcnn_models/vgg_cnn_m_1024_fast_rcnn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPN Step 1</t>
+    <t>MAX_PROPOSAL_NO</t>
+  </si>
+  <si>
+    <t>Googlenet_1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleNet_1_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,71 +398,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Step 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_with_rpn_iter_80000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_1_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_with_rpn_iter_8000_with_step_1_rpn_top_2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPN Step 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_with_rpn_iter_80000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_with_rpn_iter_8000_with_step_3_rpn_top_2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_80000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_80000_top_2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_40000_top_300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_step4_with_rpn_iter_40000_top_2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_3_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_with_rpn_iter_40000_with_step_3_rpn_top_2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net data/fast_rcnn_models/vgg_cnn_m_1024_fast_rcnn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_1_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_40000_with_step_1_rpn_top_2300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tools\test_net.py --gpu 0 --def models/VGG_CNN_M_1024/test.prototxt --net output/fast_rcnn/voc_2007_trainval_with_rpn/vgg_cnn_m_1024_fast_rcnn_with_rpn_iter_40000.caffemodel --cfg experiments/cfgs/fast_rcnn.yml --proposal rpn --proposal_file=data/rpn_data/voc_2007_test_step_1_rpn_top_2300_candidate.pkl --output_dir output/fast_rcnn/voc_2007_test/vgg_cnn_m_1024_fast_rcnn_iter_with_rpn_iter_40000_with_step_1_rpn_top_2300</t>
+    <t>we have</t>
+  </si>
+  <si>
+    <t>n01735189</t>
+  </si>
+  <si>
+    <t>n03134739</t>
+  </si>
+  <si>
+    <t>nxxxxx.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_000x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 should be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013 sould be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra0.tar</t>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra1.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra2.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra3.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra4.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra5.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra6.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra7.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra8.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra10.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2013_DET_train_extra9.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_0000.tar</t>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_0001.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_0002.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_0003.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_0004.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_0005.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC2014_train_0006.tar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 2013 ]</t>
+  </si>
+  <si>
+    <t>file : 288661, label : 345854, category : 200</t>
+  </si>
+  <si>
+    <t>[ 2014 ]</t>
+  </si>
+  <si>
+    <t>file : 349319, label : 478807, category : 200</t>
+  </si>
+  <si>
+    <t>labels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +541,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -302,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -375,13 +651,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +696,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,6 +745,1366 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ko-KR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Googlenet!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VGG16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Googlenet!$C$17:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Googlenet!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Googlenet_0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Googlenet!$D$17:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Googlenet!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Googlenet_0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Googlenet!$E$17:$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Googlenet!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Googlenet_1_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Googlenet!$G$17:$G$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Googlenet!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Googlenet_1_4_50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Googlenet!$H$17:$H$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Googlenet!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Googlenet_1_5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Googlenet!$I$17:$I$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="90480640"/>
+        <c:axId val="90482176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90480640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90482176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90482176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90480640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -742,16 +2413,16 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -973,32 +2644,32 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <v>0.95</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="9">
         <v>0.95</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="9">
         <v>0.93</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="9">
         <v>0.89800000000000002</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>0.98799999999999999</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="9">
         <v>0.92100000000000004</v>
       </c>
       <c r="L10" s="2"/>
@@ -1011,20 +2682,20 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1035,629 +2706,665 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="10.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="7" customWidth="1"/>
-    <col min="8" max="28" width="7.375" style="7" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="7"/>
+    <col min="1" max="3" width="10.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="7" customWidth="1"/>
+    <col min="6" max="8" width="7.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="7" customWidth="1"/>
+    <col min="10" max="30" width="7.375" style="7" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:31" s="3" customFormat="1">
+      <c r="B1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5">
         <v>2000</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="K2" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>69.5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>59.7</v>
+      </c>
+      <c r="N2" s="5">
+        <v>44.2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>26.4</v>
+      </c>
+      <c r="P2" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="R2" s="5">
+        <v>76.8</v>
+      </c>
+      <c r="S2" s="5">
+        <v>31.1</v>
+      </c>
+      <c r="T2" s="5">
+        <v>67</v>
+      </c>
+      <c r="U2" s="5">
+        <v>62.8</v>
+      </c>
+      <c r="V2" s="5">
+        <v>67.8</v>
+      </c>
+      <c r="W2" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="X2" s="5">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>59.4</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>55.6</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5">
-        <v>59.3</v>
-      </c>
-      <c r="I2" s="5">
-        <v>66.5</v>
-      </c>
-      <c r="J2" s="5">
-        <v>69.5</v>
-      </c>
-      <c r="K2" s="5">
-        <v>59.7</v>
-      </c>
-      <c r="L2" s="5">
-        <v>44.2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>26.4</v>
-      </c>
-      <c r="N2" s="5">
-        <v>67.5</v>
-      </c>
-      <c r="O2" s="5">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="P2" s="5">
-        <v>76.8</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>31.1</v>
-      </c>
-      <c r="R2" s="5">
-        <v>67</v>
-      </c>
-      <c r="S2" s="5">
-        <v>62.8</v>
-      </c>
-      <c r="T2" s="5">
-        <v>67.8</v>
-      </c>
-      <c r="U2" s="5">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="V2" s="5">
-        <v>68</v>
-      </c>
-      <c r="W2" s="5">
-        <v>59.4</v>
-      </c>
-      <c r="X2" s="5">
-        <v>27.7</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>55.6</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>59.3</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="6" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5">
         <v>2300</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>46</v>
+      <c r="G3" s="5">
+        <v>10000</v>
       </c>
       <c r="H3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="5">
         <v>56</v>
       </c>
-      <c r="I3" s="5">
+      <c r="K3" s="12">
         <v>51</v>
       </c>
-      <c r="J3" s="5">
+      <c r="L3" s="5">
         <v>64.900000000000006</v>
       </c>
-      <c r="K3" s="5">
+      <c r="M3" s="5">
         <v>55.7</v>
       </c>
-      <c r="L3" s="5">
+      <c r="N3" s="5">
         <v>34</v>
       </c>
-      <c r="M3" s="5">
+      <c r="O3" s="5">
         <v>28.5</v>
       </c>
-      <c r="N3" s="5">
+      <c r="P3" s="5">
         <v>62.2</v>
       </c>
-      <c r="O3" s="5">
+      <c r="Q3" s="5">
         <v>69.099999999999994</v>
       </c>
-      <c r="P3" s="5">
+      <c r="R3" s="5">
         <v>70.8</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="S3" s="5">
         <v>32.1</v>
       </c>
-      <c r="R3" s="5">
+      <c r="T3" s="5">
         <v>63.8</v>
       </c>
-      <c r="S3" s="5">
+      <c r="U3" s="5">
         <v>58.3</v>
       </c>
-      <c r="T3" s="5">
+      <c r="V3" s="5">
         <v>64.2</v>
       </c>
-      <c r="U3" s="5">
+      <c r="W3" s="5">
         <v>72.900000000000006</v>
       </c>
-      <c r="V3" s="5">
+      <c r="X3" s="5">
         <v>69.7</v>
       </c>
-      <c r="W3" s="5">
+      <c r="Y3" s="5">
         <v>61</v>
       </c>
-      <c r="X3" s="5">
+      <c r="Z3" s="5">
         <v>29.1</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="AA3" s="5">
         <v>55.1</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AB3" s="5">
         <v>54.6</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AC3" s="5">
         <v>66.099999999999994</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AD3" s="5">
         <v>56.9</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="5" customFormat="1">
+    <row r="4" spans="1:31" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5">
         <v>2300</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
+      <c r="G4" s="5">
+        <v>10000</v>
       </c>
       <c r="H4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="5">
         <v>58.4</v>
       </c>
-      <c r="I4" s="8">
+      <c r="K4" s="13">
         <v>63.9</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>67.8</v>
       </c>
-      <c r="K4" s="8">
+      <c r="M4" s="8">
         <v>55.9</v>
       </c>
-      <c r="L4" s="8">
+      <c r="N4" s="8">
         <v>43</v>
       </c>
-      <c r="M4" s="8">
+      <c r="O4" s="8">
         <v>27.5</v>
       </c>
-      <c r="N4" s="8">
+      <c r="P4" s="8">
         <v>70</v>
       </c>
-      <c r="O4" s="8">
+      <c r="Q4" s="8">
         <v>70.2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="R4" s="8">
         <v>77.8</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="S4" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="R4" s="8">
+      <c r="T4" s="8">
         <v>63.6</v>
       </c>
-      <c r="S4" s="5">
+      <c r="U4" s="5">
         <v>58.5</v>
       </c>
-      <c r="T4" s="5">
+      <c r="V4" s="5">
         <v>66.099999999999994</v>
       </c>
-      <c r="U4" s="5">
+      <c r="W4" s="5">
         <v>75.400000000000006</v>
       </c>
-      <c r="V4" s="5">
+      <c r="X4" s="5">
         <v>68.7</v>
       </c>
-      <c r="W4" s="5">
+      <c r="Y4" s="5">
         <v>62.1</v>
       </c>
-      <c r="X4" s="5">
+      <c r="Z4" s="5">
         <v>31.2</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="AA4" s="5">
         <v>56.6</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AB4" s="5">
         <v>55.9</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AC4" s="5">
         <v>67.2</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AD4" s="5">
         <v>58.4</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="5" customFormat="1">
+    <row r="5" spans="1:31" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5">
         <v>2300</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>51</v>
+      <c r="G5" s="5">
+        <v>10000</v>
       </c>
       <c r="H5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="5">
         <v>57.6</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="13">
         <v>65.099999999999994</v>
       </c>
-      <c r="J5" s="8">
+      <c r="L5" s="8">
         <v>65.599999999999994</v>
       </c>
-      <c r="K5" s="8">
+      <c r="M5" s="8">
         <v>57.1</v>
       </c>
-      <c r="L5" s="8">
+      <c r="N5" s="8">
         <v>38.700000000000003</v>
       </c>
-      <c r="M5" s="8">
+      <c r="O5" s="8">
         <v>27</v>
       </c>
-      <c r="N5" s="8">
+      <c r="P5" s="8">
         <v>66.3</v>
       </c>
-      <c r="O5" s="8">
+      <c r="Q5" s="8">
         <v>69.599999999999994</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="5">
         <v>75.400000000000006</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="S5" s="5">
         <v>29.7</v>
       </c>
-      <c r="R5" s="5">
+      <c r="T5" s="5">
         <v>62.9</v>
       </c>
-      <c r="S5" s="5">
+      <c r="U5" s="5">
         <v>57.7</v>
       </c>
-      <c r="T5" s="5">
+      <c r="V5" s="5">
         <v>64</v>
       </c>
-      <c r="U5" s="5">
+      <c r="W5" s="5">
         <v>74.900000000000006</v>
       </c>
-      <c r="V5" s="5">
+      <c r="X5" s="5">
         <v>67.8</v>
       </c>
-      <c r="W5" s="5">
+      <c r="Y5" s="5">
         <v>60.3</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Z5" s="5">
         <v>28.6</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AA5" s="5">
         <v>55.2</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AB5" s="5">
         <v>55.6</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AC5" s="5">
         <v>71.3</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AD5" s="5">
         <v>59</v>
       </c>
-      <c r="AC5" s="6"/>
-    </row>
-    <row r="6" spans="1:29" s="5" customFormat="1">
+      <c r="AE5" s="6"/>
+    </row>
+    <row r="6" spans="1:31" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5">
         <v>2300</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>53</v>
+      <c r="G6" s="5">
+        <v>10000</v>
       </c>
       <c r="H6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="5">
         <v>59.1</v>
       </c>
-      <c r="I6" s="8">
+      <c r="K6" s="13">
         <v>63.2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="L6" s="8">
         <v>68.7</v>
       </c>
-      <c r="K6" s="8">
+      <c r="M6" s="8">
         <v>57.3</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="8">
         <v>42.4</v>
       </c>
-      <c r="M6" s="8">
+      <c r="O6" s="8">
         <v>30.1</v>
       </c>
-      <c r="N6" s="8">
+      <c r="P6" s="8">
         <v>67.8</v>
       </c>
-      <c r="O6" s="8">
+      <c r="Q6" s="8">
         <v>72.400000000000006</v>
       </c>
-      <c r="P6" s="8">
+      <c r="R6" s="8">
         <v>74.2</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="S6" s="8">
         <v>31.6</v>
       </c>
-      <c r="R6" s="5">
+      <c r="T6" s="5">
         <v>64</v>
       </c>
-      <c r="S6" s="5">
+      <c r="U6" s="5">
         <v>60.5</v>
       </c>
-      <c r="T6" s="5">
+      <c r="V6" s="5">
         <v>65.7</v>
       </c>
-      <c r="U6" s="5">
+      <c r="W6" s="5">
         <v>76.7</v>
       </c>
-      <c r="V6" s="5">
+      <c r="X6" s="5">
         <v>69.7</v>
       </c>
-      <c r="W6" s="5">
+      <c r="Y6" s="5">
         <v>62.6</v>
       </c>
-      <c r="X6" s="5">
+      <c r="Z6" s="5">
         <v>31.3</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AA6" s="5">
         <v>57.7</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AB6" s="5">
         <v>54.7</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AC6" s="5">
         <v>71.599999999999994</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AD6" s="5">
         <v>59.3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="5" customFormat="1">
+    <row r="7" spans="1:31" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6">
         <v>300</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5">
         <v>59.4</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>64.2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>68.7</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <v>59.8</v>
       </c>
-      <c r="L7" s="3">
+      <c r="N7" s="3">
         <v>41.8</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>27.3</v>
       </c>
-      <c r="N7" s="7">
+      <c r="P7" s="7">
         <v>68.900000000000006</v>
       </c>
-      <c r="O7" s="7">
+      <c r="Q7" s="7">
         <v>73.099999999999994</v>
       </c>
-      <c r="P7" s="7">
+      <c r="R7" s="7">
         <v>75.8</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="S7" s="7">
         <v>32.799999999999997</v>
       </c>
-      <c r="R7" s="7">
+      <c r="T7" s="7">
         <v>65.5</v>
       </c>
-      <c r="S7" s="7">
+      <c r="U7" s="7">
         <v>61</v>
       </c>
-      <c r="T7" s="7">
+      <c r="V7" s="7">
         <v>66.8</v>
       </c>
-      <c r="U7" s="7">
+      <c r="W7" s="7">
         <v>78.400000000000006</v>
       </c>
-      <c r="V7" s="7">
+      <c r="X7" s="7">
         <v>70.5</v>
       </c>
-      <c r="W7" s="7">
+      <c r="Y7" s="7">
         <v>63.2</v>
       </c>
-      <c r="X7" s="7">
+      <c r="Z7" s="7">
         <v>29.4</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="AA7" s="7">
         <v>59.5</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="AB7" s="7">
         <v>54.3</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AC7" s="7">
         <v>68.5</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AD7" s="7">
         <v>57.8</v>
       </c>
-      <c r="AC7" s="6"/>
-    </row>
-    <row r="8" spans="1:29" s="5" customFormat="1">
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" s="5" customFormat="1">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1671,463 +3378,3416 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="6"/>
-    </row>
-    <row r="9" spans="1:29" s="5" customFormat="1">
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" s="5" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5">
         <v>2300</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="8">
         <v>56.1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>53.4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>65.2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>54.6</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>35.1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>28.8</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>66.8</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>68.7</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>71.3</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>30.8</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>56.8</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>59</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>65.400000000000006</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>73.3</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>71.3</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>61.6</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>28</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>53.5</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>52.6</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>66.7</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>59.1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="5" customFormat="1">
+    <row r="10" spans="1:31" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5">
         <v>2300</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="5">
         <v>58.4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>62.6</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>69.599999999999994</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56.2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>39.4</v>
       </c>
-      <c r="M10" s="7">
+      <c r="O10" s="7">
         <v>26.7</v>
       </c>
-      <c r="N10" s="7">
+      <c r="P10" s="7">
         <v>69.5</v>
       </c>
-      <c r="O10" s="7">
+      <c r="Q10" s="7">
         <v>70.599999999999994</v>
       </c>
-      <c r="P10" s="7">
+      <c r="R10" s="7">
         <v>72.900000000000006</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="S10" s="7">
         <v>31.3</v>
       </c>
-      <c r="R10" s="7">
+      <c r="T10" s="7">
         <v>64.5</v>
       </c>
-      <c r="S10" s="7">
+      <c r="U10" s="7">
         <v>61</v>
       </c>
-      <c r="T10" s="7">
+      <c r="V10" s="7">
         <v>67.400000000000006</v>
       </c>
-      <c r="U10" s="7">
+      <c r="W10" s="7">
         <v>76.400000000000006</v>
       </c>
-      <c r="V10" s="7">
+      <c r="X10" s="7">
         <v>69.5</v>
       </c>
-      <c r="W10" s="7">
+      <c r="Y10" s="7">
         <v>61.6</v>
       </c>
-      <c r="X10" s="7">
+      <c r="Z10" s="7">
         <v>31.2</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="AA10" s="7">
         <v>55.8</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="AB10" s="7">
         <v>55.4</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AC10" s="7">
         <v>67</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AD10" s="7">
         <v>59.7</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="5" customFormat="1">
+    <row r="11" spans="1:31" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5">
         <v>2300</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" s="5" customFormat="1">
+      <c r="G11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="5">
+        <v>56.9</v>
+      </c>
+      <c r="K11" s="3">
+        <v>63.7</v>
+      </c>
+      <c r="L11" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>57.5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="O11" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="P11" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>68.8</v>
+      </c>
+      <c r="R11" s="3">
+        <v>74.7</v>
+      </c>
+      <c r="S11" s="3">
+        <v>29</v>
+      </c>
+      <c r="T11" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="U11" s="3">
+        <v>55</v>
+      </c>
+      <c r="V11" s="3">
+        <v>63.8</v>
+      </c>
+      <c r="W11" s="3">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="X11" s="3">
+        <v>61.7</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>60.3</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>52.6</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="5">
         <v>2300</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="3">
-        <v>59.3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="J12" s="3">
-        <v>69.599999999999994</v>
+      <c r="J12" s="5">
+        <v>59.1</v>
       </c>
       <c r="K12" s="3">
-        <v>58</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="L12" s="3">
-        <v>43.9</v>
+        <v>71.7</v>
       </c>
       <c r="M12" s="3">
-        <v>28.5</v>
+        <v>55.7</v>
       </c>
       <c r="N12" s="3">
-        <v>67.599999999999994</v>
+        <v>41.2</v>
       </c>
       <c r="O12" s="3">
-        <v>71.400000000000006</v>
+        <v>27.7</v>
       </c>
       <c r="P12" s="3">
-        <v>77</v>
+        <v>70.3</v>
       </c>
       <c r="Q12" s="3">
-        <v>32.4</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="R12" s="3">
-        <v>65.099999999999994</v>
+        <v>75.5</v>
       </c>
       <c r="S12" s="3">
-        <v>63.6</v>
+        <v>31</v>
       </c>
       <c r="T12" s="3">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="U12" s="3">
-        <v>73.900000000000006</v>
+        <v>58.3</v>
       </c>
       <c r="V12" s="3">
-        <v>69.400000000000006</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="W12" s="3">
-        <v>63.4</v>
+        <v>75.2</v>
       </c>
       <c r="X12" s="3">
-        <v>30.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="Y12" s="3">
-        <v>57</v>
+        <v>62.6</v>
       </c>
       <c r="Z12" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="AA12" s="3">
         <v>55.2</v>
       </c>
-      <c r="AA12" s="3">
-        <v>68</v>
-      </c>
       <c r="AB12" s="3">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="5" customFormat="1">
+        <v>57.8</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>71.7</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="6">
         <v>300</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="7">
-        <v>59.3</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="G13" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="5">
+        <v>58.9</v>
+      </c>
+      <c r="K13" s="3">
+        <v>62.9</v>
+      </c>
+      <c r="L13" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="M13" s="3">
+        <v>55.6</v>
+      </c>
+      <c r="N13" s="3">
+        <v>41.8</v>
+      </c>
+      <c r="O13" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="P13" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="R13" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="S13" s="3">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="T13" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="U13" s="3">
+        <v>56.9</v>
+      </c>
+      <c r="V13" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="W13" s="3">
+        <v>76.7</v>
+      </c>
+      <c r="X13" s="3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>62.7</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>57.7</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="5" customFormat="1"/>
+    <row r="15" spans="1:31" s="5" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="5">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K15" s="16">
+        <v>74.5</v>
+      </c>
+      <c r="L15" s="16">
+        <v>78.3</v>
+      </c>
+      <c r="M15" s="16">
+        <v>69.2</v>
+      </c>
+      <c r="N15" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="O15" s="16">
+        <v>36.6</v>
+      </c>
+      <c r="P15" s="16">
+        <v>77.3</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>78.2</v>
+      </c>
+      <c r="R15" s="16">
+        <v>82</v>
+      </c>
+      <c r="S15" s="16">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="T15" s="16">
+        <v>72.7</v>
+      </c>
+      <c r="U15" s="16">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="V15" s="16">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="W15" s="16">
+        <v>79.2</v>
+      </c>
+      <c r="X15" s="16">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>69</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>30.1</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>70.2</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>75.8</v>
+      </c>
+      <c r="AD15" s="16">
         <v>65.8</v>
       </c>
-      <c r="J13" s="3">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="K13" s="3">
-        <v>58.7</v>
-      </c>
-      <c r="L13" s="3">
-        <v>42.3</v>
-      </c>
-      <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>68.3</v>
-      </c>
-      <c r="O13" s="7">
-        <v>71.7</v>
-      </c>
-      <c r="P13" s="7">
+    </row>
+    <row r="16" spans="1:31" s="5" customFormat="1">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+    </row>
+    <row r="17" spans="1:30" s="5" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="7">
+        <v>30.9</v>
+      </c>
+      <c r="K17" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="L17" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>28.2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="P17" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>40.9</v>
+      </c>
+      <c r="R17" s="7">
+        <v>58.1</v>
+      </c>
+      <c r="S17" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="T17" s="7">
+        <v>23</v>
+      </c>
+      <c r="U17" s="7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="V17" s="7">
+        <v>48.4</v>
+      </c>
+      <c r="W17" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="X17" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>33.9</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>55.7</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="3" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="5">
+        <v>600</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>68.2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>69.8</v>
+      </c>
+      <c r="M18" s="3">
+        <v>61.6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="O18" s="7">
+        <v>29</v>
+      </c>
+      <c r="P18" s="7">
+        <v>72.5</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>68.2</v>
+      </c>
+      <c r="R18" s="7">
+        <v>78.7</v>
+      </c>
+      <c r="S18" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="T18" s="7">
+        <v>72.5</v>
+      </c>
+      <c r="U18" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="V18" s="7">
+        <v>76.8</v>
+      </c>
+      <c r="W18" s="7">
         <v>76.2</v>
       </c>
-      <c r="Q13" s="7">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="R13" s="7">
-        <v>66.3</v>
-      </c>
-      <c r="S13" s="7">
-        <v>60</v>
-      </c>
-      <c r="T13" s="7">
+      <c r="X18" s="7">
+        <v>72.3</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>59.9</v>
+      </c>
+      <c r="AB18" s="7">
         <v>67</v>
       </c>
-      <c r="U13" s="7">
-        <v>77.2</v>
-      </c>
-      <c r="V13" s="7">
-        <v>69.7</v>
-      </c>
-      <c r="W13" s="7">
-        <v>64.3</v>
-      </c>
-      <c r="X13" s="7">
-        <v>28.9</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>58.8</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>54.4</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>70.2</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="5" customFormat="1"/>
-    <row r="15" spans="1:29" s="3" customFormat="1"/>
-    <row r="16" spans="1:29" s="3" customFormat="1"/>
-    <row r="17" spans="8:9" s="3" customFormat="1"/>
-    <row r="18" spans="8:9" s="3" customFormat="1"/>
-    <row r="19" spans="8:9" s="3" customFormat="1"/>
-    <row r="20" spans="8:9" s="3" customFormat="1"/>
-    <row r="21" spans="8:9">
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="8:9">
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="8:9">
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="8:9">
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="8:9">
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="8:9">
-      <c r="I38" s="3"/>
+      <c r="AC18" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="3" customFormat="1"/>
+    <row r="20" spans="1:30" s="3" customFormat="1"/>
+    <row r="21" spans="1:30" s="3" customFormat="1"/>
+    <row r="22" spans="1:30" s="3" customFormat="1"/>
+    <row r="23" spans="1:30">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24">
+        <v>395909</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="7">
+        <v>456567</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="7">
+        <v>456183</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="I28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="7">
+        <v>287635</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="7">
+        <v>393</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="7">
+        <v>248</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="22">
+        <v>107248</v>
+      </c>
+      <c r="E32" s="7">
+        <f>SUM(D29:D32)</f>
+        <v>395524</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="22">
+        <v>60658</v>
+      </c>
+      <c r="E33" s="7">
+        <f>SUM(D29:D33)</f>
+        <v>456182</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="D35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="7">
+        <v>9928</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="7">
+        <v>9948</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="7">
+        <v>9939</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="7">
+        <v>9946</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="7">
+        <v>9990</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="7">
+        <v>9997</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="7">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="7">
+        <v>7505</v>
+      </c>
+      <c r="E46" s="7">
+        <f>SUM(D36:D46)</f>
+        <v>107248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="7">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" s="7">
+        <f>SUM(D29,D30,D31,D36:D53)</f>
+        <v>456182</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>20000</v>
+      </c>
+      <c r="O2">
+        <v>30000</v>
+      </c>
+      <c r="P2">
+        <v>40000</v>
+      </c>
+      <c r="X2">
+        <v>10000</v>
+      </c>
+      <c r="Y2">
+        <v>20000</v>
+      </c>
+      <c r="Z2">
+        <v>30000</v>
+      </c>
+      <c r="AA2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>40000</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>30000</v>
+      </c>
+      <c r="M3">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="O3">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="X3">
+        <v>0.3</v>
+      </c>
+      <c r="Y3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>40000</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>30000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="X4">
+        <v>0.307</v>
+      </c>
+      <c r="Y4">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>40000</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>30000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.4</v>
+      </c>
+      <c r="O5">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.249</v>
+      </c>
+      <c r="X5">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="Y5">
+        <v>0.222</v>
+      </c>
+      <c r="Z5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>40000</v>
+      </c>
+      <c r="C6">
+        <v>1E-4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>30000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.47</v>
+      </c>
+      <c r="O6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="X6">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>0.313</v>
+      </c>
+      <c r="Z6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA6">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>100000</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.255</v>
+      </c>
+      <c r="Q7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="S7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.186</v>
+      </c>
+      <c r="U7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.159</v>
+      </c>
+      <c r="X7">
+        <v>0.307</v>
+      </c>
+      <c r="Y7">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.158</v>
+      </c>
+      <c r="AD7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>1E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>100000</v>
+      </c>
+      <c r="C9">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.246</v>
+      </c>
+      <c r="Q9">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.186</v>
+      </c>
+      <c r="T9">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.15</v>
+      </c>
+      <c r="X9">
+        <v>0.307</v>
+      </c>
+      <c r="Y9">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.151</v>
+      </c>
+      <c r="AD9">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>0.125</v>
+      </c>
+      <c r="AG9">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.751</v>
+      </c>
+      <c r="E17">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.751</v>
+      </c>
+      <c r="H17">
+        <v>0.751</v>
+      </c>
+      <c r="I17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D18">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.628</v>
+      </c>
+      <c r="F18">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H18">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I18">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>3000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.502</v>
+      </c>
+      <c r="E19">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.502</v>
+      </c>
+      <c r="H19">
+        <v>0.502</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>4000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>5000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G21">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H21">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>6000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.434</v>
+      </c>
+      <c r="E22">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.434</v>
+      </c>
+      <c r="H22">
+        <v>0.434</v>
+      </c>
+      <c r="I22">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>7000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.436</v>
+      </c>
+      <c r="F23">
+        <v>0.51</v>
+      </c>
+      <c r="G23">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="I23">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>8000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.433</v>
+      </c>
+      <c r="E24">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.433</v>
+      </c>
+      <c r="H24">
+        <v>0.433</v>
+      </c>
+      <c r="I24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>9000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D25">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.52</v>
+      </c>
+      <c r="G25">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>10000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.44</v>
+      </c>
+      <c r="F26">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>11000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.35</v>
+      </c>
+      <c r="E27">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.35</v>
+      </c>
+      <c r="H27">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>12000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>0.313</v>
+      </c>
+      <c r="D28">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.495</v>
+      </c>
+      <c r="G28">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>13000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H29">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I29">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>14000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G30">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H30">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I30">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>15000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>0.32</v>
+      </c>
+      <c r="D31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.46</v>
+      </c>
+      <c r="G31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I31">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>16000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.313</v>
+      </c>
+      <c r="E32">
+        <v>0.376</v>
+      </c>
+      <c r="F32">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.314</v>
+      </c>
+      <c r="H32">
+        <v>0.315</v>
+      </c>
+      <c r="I32">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>17000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G33">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="I33">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>18000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D34">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.47</v>
+      </c>
+      <c r="G34">
+        <v>0.32</v>
+      </c>
+      <c r="H34">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>19000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.317</v>
+      </c>
+      <c r="E35">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.46</v>
+      </c>
+      <c r="G35">
+        <v>0.317</v>
+      </c>
+      <c r="H35">
+        <v>0.317</v>
+      </c>
+      <c r="I35">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>20000</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D36">
+        <v>0.312</v>
+      </c>
+      <c r="E36">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.44</v>
+      </c>
+      <c r="G36">
+        <v>0.312</v>
+      </c>
+      <c r="H36">
+        <v>0.312</v>
+      </c>
+      <c r="I36">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>21000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>0.219</v>
+      </c>
+      <c r="D37">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E37">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H37">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="I37">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>22000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>0.24</v>
+      </c>
+      <c r="D38">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.41</v>
+      </c>
+      <c r="G38">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H38">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="I38">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>23000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.31</v>
+      </c>
+      <c r="E39">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.309</v>
+      </c>
+      <c r="H39">
+        <v>0.308</v>
+      </c>
+      <c r="I39">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>24000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>0.224</v>
+      </c>
+      <c r="D40">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H40">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I40">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>25000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E41">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G41">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H41">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I41">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>26000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F42">
+        <v>0.442</v>
+      </c>
+      <c r="G42">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H42">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I42">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>27000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43">
+        <v>0.191</v>
+      </c>
+      <c r="D43">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F43">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="G43">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I43">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>28000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.438</v>
+      </c>
+      <c r="G44">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H44">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>29000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G45">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H45">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I45">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>30000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.27</v>
+      </c>
+      <c r="E46">
+        <v>0.38</v>
+      </c>
+      <c r="F46">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G46">
+        <v>0.27</v>
+      </c>
+      <c r="H46">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I46">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>31000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.249</v>
+      </c>
+      <c r="F47">
+        <v>0.372</v>
+      </c>
+      <c r="G47">
+        <v>0.245</v>
+      </c>
+      <c r="H47">
+        <v>0.245</v>
+      </c>
+      <c r="I47">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>32000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>0.161</v>
+      </c>
+      <c r="D48">
+        <v>0.252</v>
+      </c>
+      <c r="E48">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="F48">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G48">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H48">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I48">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>33000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D49">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F49">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G49">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H49">
+        <v>0.26</v>
+      </c>
+      <c r="I49">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>34000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D50">
+        <v>0.247</v>
+      </c>
+      <c r="E50">
+        <v>0.26</v>
+      </c>
+      <c r="F50">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G50">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H50">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="I50">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>35000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D51">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F51">
+        <v>0.42</v>
+      </c>
+      <c r="G51">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H51">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="I51">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>36000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.41</v>
+      </c>
+      <c r="G52">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H52">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>37000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.219</v>
+      </c>
+      <c r="E53">
+        <v>0.224</v>
+      </c>
+      <c r="F53">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G53">
+        <v>0.23</v>
+      </c>
+      <c r="H53">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I53">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>38000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D54">
+        <v>0.218</v>
+      </c>
+      <c r="E54">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G54">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H54">
+        <v>0.23</v>
+      </c>
+      <c r="I54">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>39000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55">
+        <v>0.16</v>
+      </c>
+      <c r="D55">
+        <v>0.246</v>
+      </c>
+      <c r="E55">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F55">
+        <v>0.4</v>
+      </c>
+      <c r="G55">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.26</v>
+      </c>
+      <c r="I55">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>40000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56">
+        <v>0.15</v>
+      </c>
+      <c r="D56">
+        <v>0.23</v>
+      </c>
+      <c r="E56">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F56">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.247</v>
+      </c>
+      <c r="H56">
+        <v>0.246</v>
+      </c>
+      <c r="I56">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>41000</v>
+      </c>
+      <c r="G57">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H57">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I57">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>42000</v>
+      </c>
+      <c r="G58">
+        <v>0.222</v>
+      </c>
+      <c r="H58">
+        <v>0.221</v>
+      </c>
+      <c r="I58">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>43000</v>
+      </c>
+      <c r="G59">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H59">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>44000</v>
+      </c>
+      <c r="G60">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H60">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I60">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>45000</v>
+      </c>
+      <c r="G61">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H61">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I61">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>46000</v>
+      </c>
+      <c r="G62">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H62">
+        <v>0.255</v>
+      </c>
+      <c r="I62">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>47000</v>
+      </c>
+      <c r="G63">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H63">
+        <v>0.221</v>
+      </c>
+      <c r="I63">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>48000</v>
+      </c>
+      <c r="G64">
+        <v>0.247</v>
+      </c>
+      <c r="H64">
+        <v>0.245</v>
+      </c>
+      <c r="I64">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>49000</v>
+      </c>
+      <c r="G65">
+        <v>0.21</v>
+      </c>
+      <c r="H65">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="I65">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>50000</v>
+      </c>
+      <c r="G66">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H66">
+        <v>0.219</v>
+      </c>
+      <c r="I66">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>51000</v>
+      </c>
+      <c r="G67">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I67">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>52000</v>
+      </c>
+      <c r="G68">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I68">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>53000</v>
+      </c>
+      <c r="G69">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>54000</v>
+      </c>
+      <c r="G70">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I70">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>55000</v>
+      </c>
+      <c r="G71">
+        <v>0.222</v>
+      </c>
+      <c r="I71">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>56000</v>
+      </c>
+      <c r="G72">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="I72">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>57000</v>
+      </c>
+      <c r="G73">
+        <v>0.22</v>
+      </c>
+      <c r="I73">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>58000</v>
+      </c>
+      <c r="G74">
+        <v>0.22</v>
+      </c>
+      <c r="I74">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>59000</v>
+      </c>
+      <c r="G75">
+        <v>0.216</v>
+      </c>
+      <c r="I75">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>60000</v>
+      </c>
+      <c r="G76">
+        <v>0.214</v>
+      </c>
+      <c r="I76">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>61000</v>
+      </c>
+      <c r="G77">
+        <v>0.186</v>
+      </c>
+      <c r="I77">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>62000</v>
+      </c>
+      <c r="G78">
+        <v>0.193</v>
+      </c>
+      <c r="I78">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>63000</v>
+      </c>
+      <c r="G79">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I79">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>64000</v>
+      </c>
+      <c r="G80">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I80">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>65000</v>
+      </c>
+      <c r="G81">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I81">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>66000</v>
+      </c>
+      <c r="G82">
+        <v>0.17</v>
+      </c>
+      <c r="I82">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>67000</v>
+      </c>
+      <c r="G83">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I83">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>68000</v>
+      </c>
+      <c r="G84">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I84">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>69000</v>
+      </c>
+      <c r="G85">
+        <v>0.184</v>
+      </c>
+      <c r="I85">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>70000</v>
+      </c>
+      <c r="G86">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I86">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>71000</v>
+      </c>
+      <c r="G87">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I87">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>72000</v>
+      </c>
+      <c r="G88">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="I88">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>73000</v>
+      </c>
+      <c r="G89">
+        <v>0.19</v>
+      </c>
+      <c r="I89">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>74000</v>
+      </c>
+      <c r="G90">
+        <v>0.19</v>
+      </c>
+      <c r="I90">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>75000</v>
+      </c>
+      <c r="G91">
+        <v>0.182</v>
+      </c>
+      <c r="I91">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>76000</v>
+      </c>
+      <c r="G92">
+        <v>0.18</v>
+      </c>
+      <c r="I92">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>77000</v>
+      </c>
+      <c r="G93">
+        <v>0.182</v>
+      </c>
+      <c r="I93">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>78000</v>
+      </c>
+      <c r="G94">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I94">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>79000</v>
+      </c>
+      <c r="G95">
+        <v>0.2</v>
+      </c>
+      <c r="I95">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>80000</v>
+      </c>
+      <c r="G96">
+        <v>0.156</v>
+      </c>
+      <c r="I96">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>81000</v>
+      </c>
+      <c r="G97">
+        <v>0.18</v>
+      </c>
+      <c r="I97">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>82000</v>
+      </c>
+      <c r="G98">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>83000</v>
+      </c>
+      <c r="G99">
+        <v>0.17</v>
+      </c>
+      <c r="I99">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>84000</v>
+      </c>
+      <c r="G100">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="I100">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>85000</v>
+      </c>
+      <c r="G101">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I101">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>86000</v>
+      </c>
+      <c r="G102">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I102">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>87000</v>
+      </c>
+      <c r="G103">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I103">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>88000</v>
+      </c>
+      <c r="G104">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I104">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>89000</v>
+      </c>
+      <c r="G105">
+        <v>0.185</v>
+      </c>
+      <c r="I105">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>90000</v>
+      </c>
+      <c r="G106">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I106">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>91000</v>
+      </c>
+      <c r="G107">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I107">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>92000</v>
+      </c>
+      <c r="G108">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I108">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>93000</v>
+      </c>
+      <c r="G109">
+        <v>0.157</v>
+      </c>
+      <c r="I109">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>94000</v>
+      </c>
+      <c r="G110">
+        <v>0.153</v>
+      </c>
+      <c r="I110">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>95000</v>
+      </c>
+      <c r="G111">
+        <v>0.159</v>
+      </c>
+      <c r="I111">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>96000</v>
+      </c>
+      <c r="G112">
+        <v>0.153</v>
+      </c>
+      <c r="I112">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>97000</v>
+      </c>
+      <c r="G113">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="I113">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>98000</v>
+      </c>
+      <c r="G114">
+        <v>0.161</v>
+      </c>
+      <c r="I114">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>99000</v>
+      </c>
+      <c r="G115">
+        <v>0.15</v>
+      </c>
+      <c r="I115">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>100000</v>
+      </c>
+      <c r="G116">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I116">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test-result.xlsx
+++ b/test-result.xlsx
@@ -10,13 +10,14 @@
     <sheet name="RPN" sheetId="1" r:id="rId1"/>
     <sheet name="Test" sheetId="3" r:id="rId2"/>
     <sheet name="Googlenet" sheetId="4" r:id="rId3"/>
+    <sheet name="SS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
   <si>
     <t>LOGISTIC_BBOX_TARGET</t>
   </si>
@@ -401,12 +402,6 @@
     <t>we have</t>
   </si>
   <si>
-    <t>n01735189</t>
-  </si>
-  <si>
-    <t>n03134739</t>
-  </si>
-  <si>
     <t>nxxxxx.tar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +509,21 @@
   </si>
   <si>
     <t>labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FRCNN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voc_2007_trainval.mat</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2709,7 +2719,7 @@
   <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4140,14 +4150,21 @@
     <row r="19" spans="1:30" s="3" customFormat="1"/>
     <row r="20" spans="1:30" s="3" customFormat="1"/>
     <row r="21" spans="1:30" s="3" customFormat="1"/>
-    <row r="22" spans="1:30" s="3" customFormat="1"/>
+    <row r="22" spans="1:30" s="3" customFormat="1">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="23" spans="1:30">
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>395909</v>
@@ -4157,7 +4174,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="7">
         <v>456567</v>
@@ -4173,41 +4190,42 @@
       <c r="A27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="7">
-        <v>456183</v>
+      <c r="B27" s="22">
+        <v>456568</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="I28" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="7">
-        <v>287635</v>
+        <v>105</v>
+      </c>
+      <c r="D29" s="22">
+        <v>288661</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="7">
-        <v>393</v>
+        <v>107</v>
+      </c>
+      <c r="D30" s="22">
+        <v>107248</v>
+      </c>
+      <c r="E30" s="7">
+        <f>SUM(D29:D30)</f>
+        <v>395909</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -4216,42 +4234,26 @@
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="7">
-        <v>248</v>
+      <c r="D31" s="22">
+        <v>60658</v>
+      </c>
+      <c r="E31" s="7">
+        <f>SUM(D29:D31)</f>
+        <v>456567</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="22">
-        <v>107248</v>
-      </c>
-      <c r="E32" s="7">
-        <f>SUM(D29:D32)</f>
-        <v>395524</v>
-      </c>
       <c r="I32" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="22">
-        <v>60658</v>
-      </c>
-      <c r="E33" s="7">
-        <f>SUM(D29:D33)</f>
-        <v>456182</v>
-      </c>
       <c r="I33" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -4262,14 +4264,14 @@
     </row>
     <row r="35" spans="1:11">
       <c r="D35" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="7">
         <v>9928</v>
@@ -4279,7 +4281,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="7">
         <v>9948</v>
@@ -4289,7 +4291,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="7">
         <v>9939</v>
@@ -4299,7 +4301,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="7">
         <v>9946</v>
@@ -4309,7 +4311,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" s="7">
         <v>9990</v>
@@ -4319,16 +4321,20 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="7">
         <v>9997</v>
       </c>
+      <c r="I41" s="7">
+        <f>B25-E46</f>
+        <v>349319</v>
+      </c>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="7">
         <v>9996</v>
@@ -4336,7 +4342,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" s="7">
         <v>10000</v>
@@ -4344,7 +4350,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="7">
         <v>10000</v>
@@ -4352,7 +4358,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="7">
         <v>9999</v>
@@ -4360,7 +4366,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D46" s="7">
         <v>7505</v>
@@ -4372,7 +4378,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" s="7">
         <v>9999</v>
@@ -4380,56 +4386,60 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D49" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D50" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D51" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D52" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D53" s="7">
         <v>659</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="D54" s="7">
-        <f>SUM(D29,D30,D31,D36:D53)</f>
-        <v>456182</v>
+      <c r="E53" s="7">
+        <f>SUM(D47:D53)</f>
+        <v>60658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="D54" s="7" t="e">
+        <f>SUM(D29,#REF!,#REF!,D36:D53)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -6790,4 +6800,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>